--- a/2022/Price List/Realme Price List 07.08.2022.xlsx
+++ b/2022/Price List/Realme Price List 07.08.2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Model</t>
   </si>
@@ -218,10 +218,10 @@
     <t>Narzo50A Prime(4GB+128GB)</t>
   </si>
   <si>
-    <t>Realme Update Price List (07.08.2022)</t>
-  </si>
-  <si>
-    <t>07.08.2022</t>
+    <t>Realme Update Price List (10.08.2022)</t>
+  </si>
+  <si>
+    <t>10.08.2022</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -669,6 +669,24 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -693,22 +711,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1141,20 +1156,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1400,7 +1415,7 @@
   <dimension ref="B1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,27 +1425,27 @@
     <col min="3" max="3" width="13.28515625" style="7" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" style="7" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="37" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.28515625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
@@ -1445,7 +1460,7 @@
       <c r="E4" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1463,7 +1478,7 @@
         <f>D5+D5*5%</f>
         <v>11539.5</v>
       </c>
-      <c r="F5" s="42"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
@@ -1479,7 +1494,7 @@
         <f t="shared" ref="E6:E26" si="0">D6+D6*5%</f>
         <v>13114.5</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
@@ -1495,7 +1510,7 @@
         <f t="shared" si="0"/>
         <v>9439.5</v>
       </c>
-      <c r="F7" s="46"/>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
@@ -1511,7 +1526,7 @@
         <f t="shared" si="0"/>
         <v>13639.5</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
@@ -1527,7 +1542,7 @@
         <f t="shared" si="0"/>
         <v>14689.5</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
@@ -1543,7 +1558,7 @@
         <f t="shared" si="0"/>
         <v>14689.5</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
@@ -1559,7 +1574,7 @@
         <f t="shared" si="0"/>
         <v>17314.5</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
@@ -1575,7 +1590,7 @@
         <f t="shared" si="0"/>
         <v>15214.5</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
@@ -1591,7 +1606,7 @@
         <f t="shared" si="0"/>
         <v>19939.5</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="35" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1609,7 +1624,7 @@
         <f t="shared" si="0"/>
         <v>21514.5</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="35" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1627,7 +1642,7 @@
         <f t="shared" si="0"/>
         <v>24139.5</v>
       </c>
-      <c r="F15" s="46"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
@@ -1643,7 +1658,7 @@
         <f t="shared" si="0"/>
         <v>27289.5</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="38" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1661,7 +1676,7 @@
         <f t="shared" si="0"/>
         <v>28339.5</v>
       </c>
-      <c r="F17" s="46"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
@@ -1677,7 +1692,7 @@
         <f t="shared" si="0"/>
         <v>24664.5</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="34" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1695,7 +1710,7 @@
         <f t="shared" si="0"/>
         <v>33589.5</v>
       </c>
-      <c r="F19" s="42"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
@@ -1711,7 +1726,7 @@
         <f t="shared" si="0"/>
         <v>41989.5</v>
       </c>
-      <c r="F20" s="42"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
@@ -1727,7 +1742,7 @@
         <f t="shared" si="0"/>
         <v>13114.5</v>
       </c>
-      <c r="F21" s="42"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
@@ -1743,7 +1758,7 @@
         <f t="shared" si="0"/>
         <v>20998.95</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="35" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1761,7 +1776,7 @@
         <f t="shared" si="0"/>
         <v>24673.95</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="35" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1779,23 +1794,25 @@
         <f t="shared" si="0"/>
         <v>18889.5</v>
       </c>
-      <c r="F24" s="42"/>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="24">
-        <v>34490</v>
-      </c>
-      <c r="D25" s="25">
-        <v>36990</v>
-      </c>
-      <c r="E25" s="30">
-        <f t="shared" si="0"/>
-        <v>38839.5</v>
-      </c>
-      <c r="F25" s="43"/>
+      <c r="C25" s="48">
+        <v>32990</v>
+      </c>
+      <c r="D25" s="49">
+        <v>34990</v>
+      </c>
+      <c r="E25" s="50">
+        <f t="shared" si="0"/>
+        <v>36739.5</v>
+      </c>
+      <c r="F25" s="51" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="26" t="s">
@@ -1811,7 +1828,7 @@
         <f t="shared" si="0"/>
         <v>45139.5</v>
       </c>
-      <c r="F26" s="44"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="2:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/2022/Price List/Realme Price List 07.08.2022.xlsx
+++ b/2022/Price List/Realme Price List 07.08.2022.xlsx
@@ -687,6 +687,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -710,21 +725,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1156,20 +1156,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1415,7 +1415,7 @@
   <dimension ref="B1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,20 +1432,20 @@
   <sheetData>
     <row r="1" spans="2:6" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
@@ -1797,20 +1797,20 @@
       <c r="F24" s="34"/>
     </row>
     <row r="25" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="40">
         <v>32990</v>
       </c>
-      <c r="D25" s="49">
+      <c r="D25" s="41">
         <v>34990</v>
       </c>
-      <c r="E25" s="50">
+      <c r="E25" s="42">
         <f t="shared" si="0"/>
         <v>36739.5</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F25" s="43" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="76" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="91" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/2022/Price List/Realme Price List 07.08.2022.xlsx
+++ b/2022/Price List/Realme Price List 07.08.2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>Model</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Realme Price List (Last Update 15-06-2022)</t>
   </si>
   <si>
-    <t>New Price</t>
-  </si>
-  <si>
     <t xml:space="preserve"> C35 (6GB+128GB)</t>
   </si>
   <si>
@@ -221,7 +218,10 @@
     <t>Realme Update Price List (10.08.2022)</t>
   </si>
   <si>
-    <t>10.08.2022</t>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>21.08.2022</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -699,9 +699,6 @@
     <xf numFmtId="1" fontId="8" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -725,6 +722,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1156,20 +1159,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1415,7 +1418,7 @@
   <dimension ref="B1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,20 +1435,20 @@
   <sheetData>
     <row r="1" spans="2:6" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48"/>
+      <c r="B2" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
@@ -1455,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1514,7 +1517,7 @@
     </row>
     <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="24">
         <v>12370</v>
@@ -1530,7 +1533,7 @@
     </row>
     <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="24">
         <v>13320</v>
@@ -1546,7 +1549,7 @@
     </row>
     <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="24">
         <v>13290</v>
@@ -1606,13 +1609,11 @@
         <f t="shared" si="0"/>
         <v>19939.5</v>
       </c>
-      <c r="F13" s="35" t="s">
-        <v>40</v>
-      </c>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="24">
         <v>19440</v>
@@ -1624,9 +1625,7 @@
         <f t="shared" si="0"/>
         <v>21514.5</v>
       </c>
-      <c r="F14" s="35" t="s">
-        <v>40</v>
-      </c>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
@@ -1658,47 +1657,47 @@
         <f t="shared" si="0"/>
         <v>27289.5</v>
       </c>
-      <c r="F16" s="38" t="s">
-        <v>40</v>
-      </c>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="24">
-        <v>25190</v>
-      </c>
-      <c r="D17" s="25">
-        <v>26990</v>
-      </c>
-      <c r="E17" s="30">
-        <f t="shared" si="0"/>
-        <v>28339.5</v>
-      </c>
-      <c r="F17" s="38"/>
+      <c r="B17" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="40">
+        <v>25399</v>
+      </c>
+      <c r="D17" s="41">
+        <v>26999</v>
+      </c>
+      <c r="E17" s="42">
+        <f t="shared" si="0"/>
+        <v>28348.95</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="24">
-        <v>22040</v>
-      </c>
-      <c r="D18" s="25">
-        <v>23490</v>
-      </c>
-      <c r="E18" s="32">
-        <f t="shared" si="0"/>
-        <v>24664.5</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>40</v>
+      <c r="C18" s="40">
+        <v>20749</v>
+      </c>
+      <c r="D18" s="41">
+        <v>21999</v>
+      </c>
+      <c r="E18" s="51">
+        <f t="shared" si="0"/>
+        <v>23098.95</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="24">
         <v>29790</v>
@@ -1714,7 +1713,7 @@
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="24">
         <v>37190</v>
@@ -1730,7 +1729,7 @@
     </row>
     <row r="21" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="24">
         <v>11910</v>
@@ -1746,7 +1745,7 @@
     </row>
     <row r="22" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="24">
         <v>19069</v>
@@ -1758,13 +1757,11 @@
         <f t="shared" si="0"/>
         <v>20998.95</v>
       </c>
-      <c r="F22" s="35" t="s">
-        <v>40</v>
-      </c>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="24">
         <v>22399</v>
@@ -1776,13 +1773,11 @@
         <f t="shared" si="0"/>
         <v>24673.95</v>
       </c>
-      <c r="F23" s="35" t="s">
-        <v>40</v>
-      </c>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="24">
         <v>17130</v>
@@ -1797,22 +1792,20 @@
       <c r="F24" s="34"/>
     </row>
     <row r="25" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="24">
         <v>32990</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="25">
         <v>34990</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="30">
         <f t="shared" si="0"/>
         <v>36739.5</v>
       </c>
-      <c r="F25" s="43" t="s">
-        <v>40</v>
-      </c>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="26" t="s">

--- a/2022/Price List/Realme Price List 07.08.2022.xlsx
+++ b/2022/Price List/Realme Price List 07.08.2022.xlsx
@@ -699,6 +699,12 @@
     <xf numFmtId="1" fontId="8" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -722,12 +728,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,20 +1159,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1417,8 +1417,8 @@
   </sheetPr>
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,20 +1435,20 @@
   <sheetData>
     <row r="1" spans="2:6" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
@@ -1673,7 +1673,7 @@
         <f t="shared" si="0"/>
         <v>28348.95</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="44" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1687,11 +1687,11 @@
       <c r="D18" s="41">
         <v>21999</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="43">
         <f t="shared" si="0"/>
         <v>23098.95</v>
       </c>
-      <c r="F18" s="52" t="s">
+      <c r="F18" s="44" t="s">
         <v>55</v>
       </c>
     </row>

--- a/2022/Price List/Realme Price List 07.08.2022.xlsx
+++ b/2022/Price List/Realme Price List 07.08.2022.xlsx
@@ -215,13 +215,13 @@
     <t>Narzo50A Prime(4GB+128GB)</t>
   </si>
   <si>
-    <t>Realme Update Price List (10.08.2022)</t>
-  </si>
-  <si>
     <t>Update</t>
   </si>
   <si>
     <t>21.08.2022</t>
+  </si>
+  <si>
+    <t>Realme Update Price List (01.09.2022)</t>
   </si>
 </sst>
 </file>
@@ -1417,8 +1417,8 @@
   </sheetPr>
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,7 +1436,7 @@
     <row r="1" spans="2:6" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -1464,24 +1464,24 @@
         <v>51</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="24">
-        <v>10490</v>
-      </c>
-      <c r="D5" s="25">
-        <v>10990</v>
-      </c>
-      <c r="E5" s="32">
+      <c r="C5" s="40">
+        <v>10029</v>
+      </c>
+      <c r="D5" s="41">
+        <v>10499</v>
+      </c>
+      <c r="E5" s="43">
         <f>D5+D5*5%</f>
-        <v>11539.5</v>
-      </c>
-      <c r="F5" s="34"/>
+        <v>11023.95</v>
+      </c>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
@@ -1674,7 +1674,7 @@
         <v>28348.95</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1692,7 +1692,7 @@
         <v>23098.95</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/2022/Price List/Realme Price List 07.08.2022.xlsx
+++ b/2022/Price List/Realme Price List 07.08.2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>Model</t>
   </si>
@@ -221,7 +221,10 @@
     <t>21.08.2022</t>
   </si>
   <si>
-    <t>Realme Update Price List (01.09.2022)</t>
+    <t>Realme Update Price List (10.09.2022)</t>
+  </si>
+  <si>
+    <t>10.09.2022</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -694,9 +697,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1159,20 +1159,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1418,7 +1418,7 @@
   <dimension ref="B1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31:I31"/>
+      <selection activeCell="J26" sqref="I26:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,20 +1435,20 @@
   <sheetData>
     <row r="1" spans="2:6" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="2:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
@@ -1468,20 +1468,20 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="24">
         <v>10029</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="25">
         <v>10499</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="32">
         <f>D5+D5*5%</f>
         <v>11023.95</v>
       </c>
-      <c r="F5" s="44"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
@@ -1548,20 +1548,22 @@
       <c r="F9" s="34"/>
     </row>
     <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="24">
-        <v>13290</v>
-      </c>
-      <c r="D10" s="25">
-        <v>13990</v>
-      </c>
-      <c r="E10" s="32">
-        <f t="shared" si="0"/>
-        <v>14689.5</v>
-      </c>
-      <c r="F10" s="34"/>
+      <c r="C10" s="40">
+        <v>13749</v>
+      </c>
+      <c r="D10" s="41">
+        <v>14499</v>
+      </c>
+      <c r="E10" s="42">
+        <f t="shared" si="0"/>
+        <v>15223.95</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
@@ -1660,38 +1662,38 @@
       <c r="F16" s="38"/>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="24">
         <v>25399</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="25">
         <v>26999</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="30">
         <f t="shared" si="0"/>
         <v>28348.95</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="34" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="24">
         <v>20749</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="25">
         <v>21999</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="32">
         <f t="shared" si="0"/>
         <v>23098.95</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="34" t="s">
         <v>54</v>
       </c>
     </row>

--- a/2022/Price List/Realme Price List 07.08.2022.xlsx
+++ b/2022/Price List/Realme Price List 07.08.2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Model</t>
   </si>
@@ -221,10 +221,13 @@
     <t>21.08.2022</t>
   </si>
   <si>
-    <t>Realme Update Price List (10.09.2022)</t>
-  </si>
-  <si>
     <t>10.09.2022</t>
+  </si>
+  <si>
+    <t>14.09.2022</t>
+  </si>
+  <si>
+    <t>Realme Update Price List (18.09.2022)</t>
   </si>
 </sst>
 </file>
@@ -1417,8 +1420,8 @@
   </sheetPr>
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J26" sqref="I26:J26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,7 +1439,7 @@
     <row r="1" spans="2:6" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B2" s="46" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
@@ -1548,21 +1551,21 @@
       <c r="F9" s="34"/>
     </row>
     <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="24">
         <v>13749</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="25">
         <v>14499</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="32">
         <f t="shared" si="0"/>
         <v>15223.95</v>
       </c>
-      <c r="F10" s="43" t="s">
-        <v>56</v>
+      <c r="F10" s="34" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1582,20 +1585,22 @@
       <c r="F11" s="35"/>
     </row>
     <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="24">
-        <v>13670</v>
-      </c>
-      <c r="D12" s="25">
-        <v>14490</v>
-      </c>
-      <c r="E12" s="32">
-        <f t="shared" si="0"/>
-        <v>15214.5</v>
-      </c>
-      <c r="F12" s="34"/>
+      <c r="C12" s="40">
+        <v>14149</v>
+      </c>
+      <c r="D12" s="41">
+        <v>14999</v>
+      </c>
+      <c r="E12" s="42">
+        <f t="shared" si="0"/>
+        <v>15748.95</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">

--- a/2022/Price List/Realme Price List 07.08.2022.xlsx
+++ b/2022/Price List/Realme Price List 07.08.2022.xlsx
@@ -1420,8 +1420,8 @@
   </sheetPr>
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
